--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box Sync\#UNI\Materiale tesi\Analysis\ThesisAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -542,10 +542,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6133,8 +6133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6145,18 +6145,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -6203,8 +6203,8 @@
       <c r="G3" s="1">
         <v>0.19512195121951201</v>
       </c>
-      <c r="H3" s="5">
-        <f>(ABS(B3-C3) + ABS(D3-E3) + ABS(F3-G3))/3</f>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H34" si="0">(ABS(B3-C3) + ABS(D3-E3) + ABS(F3-G3))/3</f>
         <v>0.71003281461794121</v>
       </c>
     </row>
@@ -6230,8 +6230,8 @@
       <c r="G4" s="1">
         <v>0.41463414634146301</v>
       </c>
-      <c r="H4" s="5">
-        <f>(ABS(B4-C4) + ABS(D4-E4) + ABS(F4-G4))/3</f>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
         <v>0.51999901073709465</v>
       </c>
     </row>
@@ -6257,8 +6257,8 @@
       <c r="G5" s="1">
         <v>0.82317073170731703</v>
       </c>
-      <c r="H5" s="5">
-        <f>(ABS(B5-C5) + ABS(D5-E5) + ABS(F5-G5))/3</f>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
         <v>0.45869507910596702</v>
       </c>
     </row>
@@ -6284,8 +6284,8 @@
       <c r="G6" s="1">
         <v>0.66463414634146301</v>
       </c>
-      <c r="H6" s="5">
-        <f>(ABS(B6-C6) + ABS(D6-E6) + ABS(F6-G6))/3</f>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
         <v>0.38656625285431295</v>
       </c>
     </row>
@@ -6311,8 +6311,8 @@
       <c r="G7" s="1">
         <v>0.38414634146341498</v>
       </c>
-      <c r="H7" s="5">
-        <f>(ABS(B7-C7) + ABS(D7-E7) + ABS(F7-G7))/3</f>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
         <v>0.371901753122859</v>
       </c>
     </row>
@@ -6338,8 +6338,8 @@
       <c r="G8" s="1">
         <v>0.109756097560976</v>
       </c>
-      <c r="H8" s="5">
-        <f>(ABS(B8-C8) + ABS(D8-E8) + ABS(F8-G8))/3</f>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
         <v>0.319963586283529</v>
       </c>
     </row>
@@ -6365,8 +6365,8 @@
       <c r="G9" s="1">
         <v>0.353658536585366</v>
       </c>
-      <c r="H9" s="5">
-        <f>(ABS(B9-C9) + ABS(D9-E9) + ABS(F9-G9))/3</f>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
         <v>0.292986447752907</v>
       </c>
     </row>
@@ -6392,8 +6392,8 @@
       <c r="G10" s="1">
         <v>0.292682926829268</v>
       </c>
-      <c r="H10" s="5">
-        <f>(ABS(B10-C10) + ABS(D10-E10) + ABS(F10-G10))/3</f>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
         <v>0.2706737107322949</v>
       </c>
     </row>
@@ -6419,8 +6419,8 @@
       <c r="G11" s="1">
         <v>0.52439024390243905</v>
       </c>
-      <c r="H11" s="5">
-        <f>(ABS(B11-C11) + ABS(D11-E11) + ABS(F11-G11))/3</f>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
         <v>0.26182982805611499</v>
       </c>
     </row>
@@ -6446,8 +6446,8 @@
       <c r="G12" s="1">
         <v>7.3170731707317097E-2</v>
       </c>
-      <c r="H12" s="5">
-        <f>(ABS(B12-C12) + ABS(D12-E12) + ABS(F12-G12))/3</f>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
         <v>0.19198038619368121</v>
       </c>
     </row>
@@ -6473,8 +6473,8 @@
       <c r="G13" s="1">
         <v>0.78658536585365901</v>
       </c>
-      <c r="H13" s="5">
-        <f>(ABS(B13-C13) + ABS(D13-E13) + ABS(F13-G13))/3</f>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
         <v>0.18526192442978673</v>
       </c>
     </row>
@@ -6500,8 +6500,8 @@
       <c r="G14" s="1">
         <v>1.8292682926829298E-2</v>
       </c>
-      <c r="H14" s="5">
-        <f>(ABS(B14-C14) + ABS(D14-E14) + ABS(F14-G14))/3</f>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
         <v>0.17715425136117011</v>
       </c>
     </row>
@@ -6527,8 +6527,8 @@
       <c r="G15" s="1">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="H15" s="5">
-        <f>(ABS(B15-C15) + ABS(D15-E15) + ABS(F15-G15))/3</f>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
         <v>0.17433034135568817</v>
       </c>
     </row>
@@ -6554,8 +6554,8 @@
       <c r="G16" s="1">
         <v>0.457317073170732</v>
       </c>
-      <c r="H16" s="5">
-        <f>(ABS(B16-C16) + ABS(D16-E16) + ABS(F16-G16))/3</f>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
         <v>0.15164745636011431</v>
       </c>
     </row>
@@ -6581,8 +6581,8 @@
       <c r="G17" s="1">
         <v>0.49390243902439002</v>
       </c>
-      <c r="H17" s="5">
-        <f>(ABS(B17-C17) + ABS(D17-E17) + ABS(F17-G17))/3</f>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
         <v>0.15112957115388168</v>
       </c>
     </row>
@@ -6608,8 +6608,8 @@
       <c r="G18" s="1">
         <v>0.36585365853658502</v>
       </c>
-      <c r="H18" s="5">
-        <f>(ABS(B18-C18) + ABS(D18-E18) + ABS(F18-G18))/3</f>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
         <v>0.15017795245357832</v>
       </c>
     </row>
@@ -6635,8 +6635,8 @@
       <c r="G19" s="1">
         <v>0.176829268292683</v>
       </c>
-      <c r="H19" s="5">
-        <f>(ABS(B19-C19) + ABS(D19-E19) + ABS(F19-G19))/3</f>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
         <v>0.12479753575919679</v>
       </c>
     </row>
@@ -6662,8 +6662,8 @@
       <c r="G20" s="1">
         <v>0.37195121951219501</v>
       </c>
-      <c r="H20" s="5">
-        <f>(ABS(B20-C20) + ABS(D20-E20) + ABS(F20-G20))/3</f>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
         <v>0.12338768563860235</v>
       </c>
     </row>
@@ -6689,8 +6689,8 @@
       <c r="G21" s="1">
         <v>0.85365853658536595</v>
       </c>
-      <c r="H21" s="5">
-        <f>(ABS(B21-C21) + ABS(D21-E21) + ABS(F21-G21))/3</f>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
         <v>0.11388367619238</v>
       </c>
     </row>
@@ -6716,8 +6716,8 @@
       <c r="G22" s="1">
         <v>0.17073170731707299</v>
       </c>
-      <c r="H22" s="5">
-        <f>(ABS(B22-C22) + ABS(D22-E22) + ABS(F22-G22))/3</f>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
         <v>0.11014815396092291</v>
       </c>
     </row>
@@ -6743,8 +6743,8 @@
       <c r="G23" s="1">
         <v>0.109756097560976</v>
       </c>
-      <c r="H23" s="5">
-        <f>(ABS(B23-C23) + ABS(D23-E23) + ABS(F23-G23))/3</f>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
         <v>0.10354549698962234</v>
       </c>
     </row>
@@ -6770,8 +6770,8 @@
       <c r="G24" s="1">
         <v>0.396341463414634</v>
       </c>
-      <c r="H24" s="5">
-        <f>(ABS(B24-C24) + ABS(D24-E24) + ABS(F24-G24))/3</f>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
         <v>0.100910544265</v>
       </c>
     </row>
@@ -6797,8 +6797,8 @@
       <c r="G25" s="1">
         <v>0.115853658536585</v>
       </c>
-      <c r="H25" s="5">
-        <f>(ABS(B25-C25) + ABS(D25-E25) + ABS(F25-G25))/3</f>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
         <v>9.7624354172257843E-2</v>
       </c>
     </row>
@@ -6824,8 +6824,8 @@
       <c r="G26" s="1">
         <v>0.24390243902438999</v>
       </c>
-      <c r="H26" s="5">
-        <f>(ABS(B26-C26) + ABS(D26-E26) + ABS(F26-G26))/3</f>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
         <v>9.435373079961E-2</v>
       </c>
     </row>
@@ -6851,8 +6851,8 @@
       <c r="G27" s="1">
         <v>1.8292682926829298E-2</v>
       </c>
-      <c r="H27" s="5">
-        <f>(ABS(B27-C27) + ABS(D27-E27) + ABS(F27-G27))/3</f>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
         <v>8.8798903610397564E-2</v>
       </c>
     </row>
@@ -6878,8 +6878,8 @@
       <c r="G28" s="1">
         <v>0.87195121951219501</v>
       </c>
-      <c r="H28" s="5">
-        <f>(ABS(B28-C28) + ABS(D28-E28) + ABS(F28-G28))/3</f>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
         <v>8.1684176050906346E-2</v>
       </c>
     </row>
@@ -6905,8 +6905,8 @@
       <c r="G29" s="1">
         <v>0.15853658536585399</v>
       </c>
-      <c r="H29" s="5">
-        <f>(ABS(B29-C29) + ABS(D29-E29) + ABS(F29-G29))/3</f>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
         <v>7.270957266573401E-2</v>
       </c>
     </row>
@@ -6932,8 +6932,8 @@
       <c r="G30" s="1">
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="H30" s="5">
-        <f>(ABS(B30-C30) + ABS(D30-E30) + ABS(F30-G30))/3</f>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
         <v>7.0427380685630245E-2</v>
       </c>
     </row>
@@ -6959,8 +6959,8 @@
       <c r="G31" s="1">
         <v>5.4878048780487798E-2</v>
       </c>
-      <c r="H31" s="5">
-        <f>(ABS(B31-C31) + ABS(D31-E31) + ABS(F31-G31))/3</f>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
         <v>7.0149057005425633E-2</v>
       </c>
     </row>
@@ -6986,8 +6986,8 @@
       <c r="G32" s="1">
         <v>0.23170731707317099</v>
       </c>
-      <c r="H32" s="5">
-        <f>(ABS(B32-C32) + ABS(D32-E32) + ABS(F32-G32))/3</f>
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
         <v>5.7186299155851335E-2</v>
       </c>
     </row>
@@ -7013,8 +7013,8 @@
       <c r="G33" s="1">
         <v>0.81097560975609795</v>
       </c>
-      <c r="H33" s="5">
-        <f>(ABS(B33-C33) + ABS(D33-E33) + ABS(F33-G33))/3</f>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
         <v>4.6389847613345303E-2</v>
       </c>
     </row>
@@ -7040,8 +7040,8 @@
       <c r="G34" s="1">
         <v>3.65853658536585E-2</v>
       </c>
-      <c r="H34" s="5">
-        <f>(ABS(B34-C34) + ABS(D34-E34) + ABS(F34-G34))/3</f>
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
         <v>4.5971633505508848E-2</v>
       </c>
     </row>
@@ -7067,8 +7067,8 @@
       <c r="G35" s="1">
         <v>4.2682926829268303E-2</v>
       </c>
-      <c r="H35" s="5">
-        <f>(ABS(B35-C35) + ABS(D35-E35) + ABS(F35-G35))/3</f>
+      <c r="H35" s="4">
+        <f t="shared" ref="H35:H66" si="1">(ABS(B35-C35) + ABS(D35-E35) + ABS(F35-G35))/3</f>
         <v>4.5692307482918033E-2</v>
       </c>
     </row>
@@ -7094,8 +7094,8 @@
       <c r="G36" s="1">
         <v>7.9268292682926803E-2</v>
       </c>
-      <c r="H36" s="5">
-        <f>(ABS(B36-C36) + ABS(D36-E36) + ABS(F36-G36))/3</f>
+      <c r="H36" s="4">
+        <f t="shared" si="1"/>
         <v>4.2880253724347471E-2</v>
       </c>
     </row>
@@ -7121,8 +7121,8 @@
       <c r="G37" s="1">
         <v>0.115853658536585</v>
       </c>
-      <c r="H37" s="5">
-        <f>(ABS(B37-C37) + ABS(D37-E37) + ABS(F37-G37))/3</f>
+      <c r="H37" s="4">
+        <f t="shared" si="1"/>
         <v>3.979192395420663E-2</v>
       </c>
     </row>
@@ -7148,8 +7148,8 @@
       <c r="G38" s="1">
         <v>0.115853658536585</v>
       </c>
-      <c r="H38" s="5">
-        <f>(ABS(B38-C38) + ABS(D38-E38) + ABS(F38-G38))/3</f>
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
         <v>3.810166333480567E-2</v>
       </c>
     </row>
@@ -7175,8 +7175,8 @@
       <c r="G39" s="1">
         <v>0.109756097560976</v>
       </c>
-      <c r="H39" s="5">
-        <f>(ABS(B39-C39) + ABS(D39-E39) + ABS(F39-G39))/3</f>
+      <c r="H39" s="4">
+        <f t="shared" si="1"/>
         <v>3.7710596227255061E-2</v>
       </c>
     </row>
@@ -7202,8 +7202,8 @@
       <c r="G40" s="1">
         <v>0.103658536585366</v>
       </c>
-      <c r="H40" s="5">
-        <f>(ABS(B40-C40) + ABS(D40-E40) + ABS(F40-G40))/3</f>
+      <c r="H40" s="4">
+        <f t="shared" si="1"/>
         <v>3.6748828469296932E-2</v>
       </c>
     </row>
@@ -7229,8 +7229,8 @@
       <c r="G41" s="1">
         <v>3.0487804878048801E-2</v>
       </c>
-      <c r="H41" s="5">
-        <f>(ABS(B41-C41) + ABS(D41-E41) + ABS(F41-G41))/3</f>
+      <c r="H41" s="4">
+        <f t="shared" si="1"/>
         <v>3.6323683342653533E-2</v>
       </c>
     </row>
@@ -7256,8 +7256,8 @@
       <c r="G42" s="1">
         <v>4.8780487804878099E-2</v>
       </c>
-      <c r="H42" s="5">
-        <f>(ABS(B42-C42) + ABS(D42-E42) + ABS(F42-G42))/3</f>
+      <c r="H42" s="4">
+        <f t="shared" si="1"/>
         <v>3.5693803277096765E-2</v>
       </c>
     </row>
@@ -7283,8 +7283,8 @@
       <c r="G43" s="1">
         <v>0.29878048780487798</v>
       </c>
-      <c r="H43" s="5">
-        <f>(ABS(B43-C43) + ABS(D43-E43) + ABS(F43-G43))/3</f>
+      <c r="H43" s="4">
+        <f t="shared" si="1"/>
         <v>3.3727212013119338E-2</v>
       </c>
     </row>
@@ -7310,8 +7310,8 @@
       <c r="G44" s="1">
         <v>2.4390243902439001E-2</v>
       </c>
-      <c r="H44" s="5">
-        <f>(ABS(B44-C44) + ABS(D44-E44) + ABS(F44-G44))/3</f>
+      <c r="H44" s="4">
+        <f t="shared" si="1"/>
         <v>2.6373617599904853E-2</v>
       </c>
     </row>
@@ -7337,8 +7337,8 @@
       <c r="G45" s="1">
         <v>0.95121951219512202</v>
       </c>
-      <c r="H45" s="5">
-        <f>(ABS(B45-C45) + ABS(D45-E45) + ABS(F45-G45))/3</f>
+      <c r="H45" s="4">
+        <f t="shared" si="1"/>
         <v>2.5076605205729668E-2</v>
       </c>
     </row>
@@ -7364,8 +7364,8 @@
       <c r="G46" s="1">
         <v>6.7073170731707293E-2</v>
       </c>
-      <c r="H46" s="5">
-        <f>(ABS(B46-C46) + ABS(D46-E46) + ABS(F46-G46))/3</f>
+      <c r="H46" s="4">
+        <f t="shared" si="1"/>
         <v>2.2127428575698927E-2</v>
       </c>
     </row>
@@ -7391,8 +7391,8 @@
       <c r="G47" s="1">
         <v>1.8292682926829298E-2</v>
       </c>
-      <c r="H47" s="5">
-        <f>(ABS(B47-C47) + ABS(D47-E47) + ABS(F47-G47))/3</f>
+      <c r="H47" s="4">
+        <f t="shared" si="1"/>
         <v>2.1794210005592132E-2</v>
       </c>
     </row>
@@ -7418,8 +7418,8 @@
       <c r="G48" s="1">
         <v>0.96341463414634099</v>
       </c>
-      <c r="H48" s="5">
-        <f>(ABS(B48-C48) + ABS(D48-E48) + ABS(F48-G48))/3</f>
+      <c r="H48" s="4">
+        <f t="shared" si="1"/>
         <v>1.633163237857967E-2</v>
       </c>
     </row>
@@ -7445,8 +7445,8 @@
       <c r="G49" s="1">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="H49" s="5">
-        <f>(ABS(B49-C49) + ABS(D49-E49) + ABS(F49-G49))/3</f>
+      <c r="H49" s="4">
+        <f t="shared" si="1"/>
         <v>1.5438679425208967E-2</v>
       </c>
     </row>
@@ -7472,8 +7472,8 @@
       <c r="G50" s="1">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="H50" s="5">
-        <f>(ABS(B50-C50) + ABS(D50-E50) + ABS(F50-G50))/3</f>
+      <c r="H50" s="4">
+        <f t="shared" si="1"/>
         <v>1.4529473337061401E-2</v>
       </c>
     </row>
@@ -7499,8 +7499,8 @@
       <c r="G51" s="1">
         <v>6.7073170731707293E-2</v>
       </c>
-      <c r="H51" s="5">
-        <f>(ABS(B51-C51) + ABS(D51-E51) + ABS(F51-G51))/3</f>
+      <c r="H51" s="4">
+        <f t="shared" si="1"/>
         <v>1.1898036810359466E-2</v>
       </c>
     </row>
@@ -7526,8 +7526,8 @@
       <c r="G52" s="1">
         <v>6.0975609756097601E-2</v>
       </c>
-      <c r="H52" s="5">
-        <f>(ABS(B52-C52) + ABS(D52-E52) + ABS(F52-G52))/3</f>
+      <c r="H52" s="4">
+        <f t="shared" si="1"/>
         <v>1.1126885230185103E-2</v>
       </c>
     </row>
@@ -7553,8 +7553,8 @@
       <c r="G53" s="1">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="H53" s="5">
-        <f>(ABS(B53-C53) + ABS(D53-E53) + ABS(F53-G53))/3</f>
+      <c r="H53" s="4">
+        <f t="shared" si="1"/>
         <v>1.0442483710856071E-2</v>
       </c>
     </row>
@@ -7580,8 +7580,8 @@
       <c r="G54" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H54" s="5">
-        <f>(ABS(B54-C54) + ABS(D54-E54) + ABS(F54-G54))/3</f>
+      <c r="H54" s="4">
+        <f t="shared" si="1"/>
         <v>1.020660220803693E-2</v>
       </c>
     </row>
@@ -7607,8 +7607,8 @@
       <c r="G55" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H55" s="5">
-        <f>(ABS(B55-C55) + ABS(D55-E55) + ABS(F55-G55))/3</f>
+      <c r="H55" s="4">
+        <f t="shared" si="1"/>
         <v>1.0090810834075604E-2</v>
       </c>
     </row>
@@ -7634,8 +7634,8 @@
       <c r="G56" s="1">
         <v>1.8292682926829298E-2</v>
       </c>
-      <c r="H56" s="5">
-        <f>(ABS(B56-C56) + ABS(D56-E56) + ABS(F56-G56))/3</f>
+      <c r="H56" s="4">
+        <f t="shared" si="1"/>
         <v>9.1053310246678627E-3</v>
       </c>
     </row>
@@ -7661,8 +7661,8 @@
       <c r="G57" s="1">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="H57" s="5">
-        <f>(ABS(B57-C57) + ABS(D57-E57) + ABS(F57-G57))/3</f>
+      <c r="H57" s="4">
+        <f t="shared" si="1"/>
         <v>8.5964267177402898E-3</v>
       </c>
     </row>
@@ -7688,8 +7688,8 @@
       <c r="G58" s="1">
         <v>8.5365853658536606E-2</v>
       </c>
-      <c r="H58" s="5">
-        <f>(ABS(B58-C58) + ABS(D58-E58) + ABS(F58-G58))/3</f>
+      <c r="H58" s="4">
+        <f t="shared" si="1"/>
         <v>8.3204750389510359E-3</v>
       </c>
     </row>
@@ -7715,8 +7715,8 @@
       <c r="G59" s="1">
         <v>0</v>
       </c>
-      <c r="H59" s="5">
-        <f>(ABS(B59-C59) + ABS(D59-E59) + ABS(F59-G59))/3</f>
+      <c r="H59" s="4">
+        <f t="shared" si="1"/>
         <v>7.544062691121514E-3</v>
       </c>
     </row>
@@ -7742,8 +7742,8 @@
       <c r="G60" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H60" s="5">
-        <f>(ABS(B60-C60) + ABS(D60-E60) + ABS(F60-G60))/3</f>
+      <c r="H60" s="4">
+        <f t="shared" si="1"/>
         <v>7.2647366685307064E-3</v>
       </c>
     </row>
@@ -7769,8 +7769,8 @@
       <c r="G61" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H61" s="5">
-        <f>(ABS(B61-C61) + ABS(D61-E61) + ABS(F61-G61))/3</f>
+      <c r="H61" s="4">
+        <f t="shared" si="1"/>
         <v>7.2647366685307064E-3</v>
       </c>
     </row>
@@ -7796,8 +7796,8 @@
       <c r="G62" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H62" s="5">
-        <f>(ABS(B62-C62) + ABS(D62-E62) + ABS(F62-G62))/3</f>
+      <c r="H62" s="4">
+        <f t="shared" si="1"/>
         <v>7.2647366685307064E-3</v>
       </c>
     </row>
@@ -7823,8 +7823,8 @@
       <c r="G63" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H63" s="5">
-        <f>(ABS(B63-C63) + ABS(D63-E63) + ABS(F63-G63))/3</f>
+      <c r="H63" s="4">
+        <f t="shared" si="1"/>
         <v>7.2647366685307064E-3</v>
       </c>
     </row>
@@ -7850,8 +7850,8 @@
       <c r="G64" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H64" s="5">
-        <f>(ABS(B64-C64) + ABS(D64-E64) + ABS(F64-G64))/3</f>
+      <c r="H64" s="4">
+        <f t="shared" si="1"/>
         <v>7.2647366685307064E-3</v>
       </c>
     </row>
@@ -7877,8 +7877,8 @@
       <c r="G65" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H65" s="5">
-        <f>(ABS(B65-C65) + ABS(D65-E65) + ABS(F65-G65))/3</f>
+      <c r="H65" s="4">
+        <f t="shared" si="1"/>
         <v>7.2647366685307064E-3</v>
       </c>
     </row>
@@ -7904,8 +7904,8 @@
       <c r="G66" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H66" s="5">
-        <f>(ABS(B66-C66) + ABS(D66-E66) + ABS(F66-G66))/3</f>
+      <c r="H66" s="4">
+        <f t="shared" si="1"/>
         <v>7.2647366685307064E-3</v>
       </c>
     </row>
@@ -7931,8 +7931,8 @@
       <c r="G67" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H67" s="5">
-        <f>(ABS(B67-C67) + ABS(D67-E67) + ABS(F67-G67))/3</f>
+      <c r="H67" s="4">
+        <f t="shared" ref="H67:H98" si="2">(ABS(B67-C67) + ABS(D67-E67) + ABS(F67-G67))/3</f>
         <v>7.2647366685307064E-3</v>
       </c>
     </row>
@@ -7958,8 +7958,8 @@
       <c r="G68" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H68" s="5">
-        <f>(ABS(B68-C68) + ABS(D68-E68) + ABS(F68-G68))/3</f>
+      <c r="H68" s="4">
+        <f t="shared" si="2"/>
         <v>7.2647366685307064E-3</v>
       </c>
     </row>
@@ -7985,8 +7985,8 @@
       <c r="G69" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H69" s="5">
-        <f>(ABS(B69-C69) + ABS(D69-E69) + ABS(F69-G69))/3</f>
+      <c r="H69" s="4">
+        <f t="shared" si="2"/>
         <v>7.2647366685307064E-3</v>
       </c>
     </row>
@@ -8012,8 +8012,8 @@
       <c r="G70" s="1">
         <v>0</v>
       </c>
-      <c r="H70" s="5">
-        <f>(ABS(B70-C70) + ABS(D70-E70) + ABS(F70-G70))/3</f>
+      <c r="H70" s="4">
+        <f t="shared" si="2"/>
         <v>6.8005554116665227E-3</v>
       </c>
     </row>
@@ -8039,8 +8039,8 @@
       <c r="G71" s="1">
         <v>0</v>
       </c>
-      <c r="H71" s="5">
-        <f>(ABS(B71-C71) + ABS(D71-E71) + ABS(F71-G71))/3</f>
+      <c r="H71" s="4">
+        <f t="shared" si="2"/>
         <v>6.8005554116665227E-3</v>
       </c>
     </row>
@@ -8066,8 +8066,8 @@
       <c r="G72" s="1">
         <v>0</v>
       </c>
-      <c r="H72" s="5">
-        <f>(ABS(B72-C72) + ABS(D72-E72) + ABS(F72-G72))/3</f>
+      <c r="H72" s="4">
+        <f t="shared" si="2"/>
         <v>6.8005554116665227E-3</v>
       </c>
     </row>
@@ -8093,8 +8093,8 @@
       <c r="G73" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H73" s="5">
-        <f>(ABS(B73-C73) + ABS(D73-E73) + ABS(F73-G73))/3</f>
+      <c r="H73" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8120,8 +8120,8 @@
       <c r="G74" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H74" s="5">
-        <f>(ABS(B74-C74) + ABS(D74-E74) + ABS(F74-G74))/3</f>
+      <c r="H74" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8147,8 +8147,8 @@
       <c r="G75" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H75" s="5">
-        <f>(ABS(B75-C75) + ABS(D75-E75) + ABS(F75-G75))/3</f>
+      <c r="H75" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8174,8 +8174,8 @@
       <c r="G76" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H76" s="5">
-        <f>(ABS(B76-C76) + ABS(D76-E76) + ABS(F76-G76))/3</f>
+      <c r="H76" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8201,8 +8201,8 @@
       <c r="G77" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H77" s="5">
-        <f>(ABS(B77-C77) + ABS(D77-E77) + ABS(F77-G77))/3</f>
+      <c r="H77" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8228,8 +8228,8 @@
       <c r="G78" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H78" s="5">
-        <f>(ABS(B78-C78) + ABS(D78-E78) + ABS(F78-G78))/3</f>
+      <c r="H78" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8255,8 +8255,8 @@
       <c r="G79" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H79" s="5">
-        <f>(ABS(B79-C79) + ABS(D79-E79) + ABS(F79-G79))/3</f>
+      <c r="H79" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8282,8 +8282,8 @@
       <c r="G80" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H80" s="5">
-        <f>(ABS(B80-C80) + ABS(D80-E80) + ABS(F80-G80))/3</f>
+      <c r="H80" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8309,8 +8309,8 @@
       <c r="G81" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H81" s="5">
-        <f>(ABS(B81-C81) + ABS(D81-E81) + ABS(F81-G81))/3</f>
+      <c r="H81" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8336,8 +8336,8 @@
       <c r="G82" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H82" s="5">
-        <f>(ABS(B82-C82) + ABS(D82-E82) + ABS(F82-G82))/3</f>
+      <c r="H82" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8363,8 +8363,8 @@
       <c r="G83" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H83" s="5">
-        <f>(ABS(B83-C83) + ABS(D83-E83) + ABS(F83-G83))/3</f>
+      <c r="H83" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8390,8 +8390,8 @@
       <c r="G84" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H84" s="5">
-        <f>(ABS(B84-C84) + ABS(D84-E84) + ABS(F84-G84))/3</f>
+      <c r="H84" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8417,8 +8417,8 @@
       <c r="G85" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H85" s="5">
-        <f>(ABS(B85-C85) + ABS(D85-E85) + ABS(F85-G85))/3</f>
+      <c r="H85" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8444,8 +8444,8 @@
       <c r="G86" s="1">
         <v>6.0975609756097598E-3</v>
       </c>
-      <c r="H86" s="5">
-        <f>(ABS(B86-C86) + ABS(D86-E86) + ABS(F86-G86))/3</f>
+      <c r="H86" s="4">
+        <f t="shared" si="2"/>
         <v>5.9840728878669258E-3</v>
       </c>
     </row>
@@ -8471,8 +8471,8 @@
       <c r="G87" s="1">
         <v>1.21951219512195E-2</v>
       </c>
-      <c r="H87" s="5">
-        <f>(ABS(B87-C87) + ABS(D87-E87) + ABS(F87-G87))/3</f>
+      <c r="H87" s="4">
+        <f t="shared" si="2"/>
         <v>3.1434193039485739E-3</v>
       </c>
     </row>
@@ -8498,8 +8498,8 @@
       <c r="G88" s="1">
         <v>0</v>
       </c>
-      <c r="H88" s="5">
-        <f>(ABS(B88-C88) + ABS(D88-E88) + ABS(F88-G88))/3</f>
+      <c r="H88" s="4">
+        <f t="shared" si="2"/>
         <v>2.80112044817927E-3</v>
       </c>
     </row>
@@ -8525,8 +8525,8 @@
       <c r="G89" s="1">
         <v>1</v>
       </c>
-      <c r="H89" s="5">
-        <f>(ABS(B89-C89) + ABS(D89-E89) + ABS(F89-G89))/3</f>
+      <c r="H89" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8552,8 +8552,8 @@
       <c r="G90" s="1">
         <v>1</v>
       </c>
-      <c r="H90" s="5">
-        <f>(ABS(B90-C90) + ABS(D90-E90) + ABS(F90-G90))/3</f>
+      <c r="H90" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8579,8 +8579,8 @@
       <c r="G91" s="1">
         <v>0</v>
       </c>
-      <c r="H91" s="5">
-        <f>(ABS(B91-C91) + ABS(D91-E91) + ABS(F91-G91))/3</f>
+      <c r="H91" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8606,8 +8606,8 @@
       <c r="G92" s="1">
         <v>0</v>
       </c>
-      <c r="H92" s="5">
-        <f>(ABS(B92-C92) + ABS(D92-E92) + ABS(F92-G92))/3</f>
+      <c r="H92" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8633,8 +8633,8 @@
       <c r="G93" s="1">
         <v>0</v>
       </c>
-      <c r="H93" s="5">
-        <f>(ABS(B93-C93) + ABS(D93-E93) + ABS(F93-G93))/3</f>
+      <c r="H93" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8660,8 +8660,8 @@
       <c r="G94" s="1">
         <v>0</v>
       </c>
-      <c r="H94" s="5">
-        <f>(ABS(B94-C94) + ABS(D94-E94) + ABS(F94-G94))/3</f>
+      <c r="H94" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8687,8 +8687,8 @@
       <c r="G95" s="1">
         <v>0</v>
       </c>
-      <c r="H95" s="5">
-        <f>(ABS(B95-C95) + ABS(D95-E95) + ABS(F95-G95))/3</f>
+      <c r="H95" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8714,8 +8714,8 @@
       <c r="G96" s="1">
         <v>0</v>
       </c>
-      <c r="H96" s="5">
-        <f>(ABS(B96-C96) + ABS(D96-E96) + ABS(F96-G96))/3</f>
+      <c r="H96" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8741,8 +8741,8 @@
       <c r="G97" s="1">
         <v>0</v>
       </c>
-      <c r="H97" s="5">
-        <f>(ABS(B97-C97) + ABS(D97-E97) + ABS(F97-G97))/3</f>
+      <c r="H97" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8768,8 +8768,8 @@
       <c r="G98" s="1">
         <v>0</v>
       </c>
-      <c r="H98" s="5">
-        <f>(ABS(B98-C98) + ABS(D98-E98) + ABS(F98-G98))/3</f>
+      <c r="H98" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8795,8 +8795,8 @@
       <c r="G99" s="1">
         <v>0</v>
       </c>
-      <c r="H99" s="5">
-        <f>(ABS(B99-C99) + ABS(D99-E99) + ABS(F99-G99))/3</f>
+      <c r="H99" s="4">
+        <f t="shared" ref="H99:H130" si="3">(ABS(B99-C99) + ABS(D99-E99) + ABS(F99-G99))/3</f>
         <v>0</v>
       </c>
     </row>
@@ -8822,8 +8822,8 @@
       <c r="G100" s="1">
         <v>0</v>
       </c>
-      <c r="H100" s="5">
-        <f>(ABS(B100-C100) + ABS(D100-E100) + ABS(F100-G100))/3</f>
+      <c r="H100" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8849,8 +8849,8 @@
       <c r="G101" s="1">
         <v>0</v>
       </c>
-      <c r="H101" s="5">
-        <f>(ABS(B101-C101) + ABS(D101-E101) + ABS(F101-G101))/3</f>
+      <c r="H101" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8876,8 +8876,8 @@
       <c r="G102" s="1">
         <v>0</v>
       </c>
-      <c r="H102" s="5">
-        <f>(ABS(B102-C102) + ABS(D102-E102) + ABS(F102-G102))/3</f>
+      <c r="H102" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8903,8 +8903,8 @@
       <c r="G103" s="1">
         <v>0</v>
       </c>
-      <c r="H103" s="5">
-        <f>(ABS(B103-C103) + ABS(D103-E103) + ABS(F103-G103))/3</f>
+      <c r="H103" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8930,8 +8930,8 @@
       <c r="G104" s="1">
         <v>0</v>
       </c>
-      <c r="H104" s="5">
-        <f>(ABS(B104-C104) + ABS(D104-E104) + ABS(F104-G104))/3</f>
+      <c r="H104" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10932" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10932"/>
   </bookViews>
   <sheets>
     <sheet name="Most Seen bygraph" sheetId="3" r:id="rId1"/>
@@ -5579,8 +5579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6133,7 +6133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" ref="H99:H130" si="3">(ABS(B99-C99) + ABS(D99-E99) + ABS(F99-G99))/3</f>
+        <f t="shared" ref="H99:H104" si="3">(ABS(B99-C99) + ABS(D99-E99) + ABS(F99-G99))/3</f>
         <v>0</v>
       </c>
     </row>

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10932" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10932" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reduced Most Seen" sheetId="6" r:id="rId1"/>
@@ -5605,24 +5605,35 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1025422549155549"/>
+          <c:y val="6.1599396616396358E-2"/>
+          <c:w val="0.87861453729876071"/>
+          <c:h val="0.9179186759966057"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Most Seen bygraph'!$A$2:$A$28</c:f>
@@ -5716,7 +5727,7 @@
             <c:numRef>
               <c:f>'Most Seen bygraph'!$E$2:$E$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.62635280999999998</c:v>
@@ -5758,50 +5769,51 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5151199999999809E-3</c:v>
+                  <c:v>-1.5151199999999809E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0725129999999981E-2</c:v>
+                  <c:v>-2.0725129999999981E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3409090000000048E-2</c:v>
+                  <c:v>-5.3409090000000048E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9253219999999995E-2</c:v>
+                  <c:v>-5.9253219999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10725107</c:v>
+                  <c:v>-0.10725107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13219694000000004</c:v>
+                  <c:v>-0.13219694000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15817099000000001</c:v>
+                  <c:v>-0.15817099000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.19280305999999997</c:v>
+                  <c:v>-0.19280305999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20757579000000004</c:v>
+                  <c:v>-0.20757579000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.30654760000000003</c:v>
+                  <c:v>-0.30654760000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.33344157000000002</c:v>
+                  <c:v>-0.33344157000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.37559520000000002</c:v>
+                  <c:v>-0.37559520000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.38160174000000002</c:v>
+                  <c:v>-0.38160174000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.46174239000000006</c:v>
+                  <c:v>-0.46174239000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6537-4502-AE51-AF38FADCC113}"/>
@@ -5816,17 +5828,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:smooth val="0"/>
         <c:axId val="348073968"/>
         <c:axId val="348074952"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="348073968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5877,7 +5889,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5892,7 +5904,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -16302,16 +16314,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>429025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68517</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114139</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>527637</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>158164</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>212751</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>94291</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17961,8 +17973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17997,8 +18009,8 @@
         <f t="shared" ref="D2:D28" si="0">B2-C2</f>
         <v>0.62635280999999998</v>
       </c>
-      <c r="E2">
-        <f>ABS(D2)</f>
+      <c r="E2" s="2">
+        <f>(D2)</f>
         <v>0.62635280999999998</v>
       </c>
     </row>
@@ -18016,8 +18028,8 @@
         <f t="shared" si="0"/>
         <v>0.56103891999999989</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E28" si="1">ABS(D3)</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E28" si="1">(D3)</f>
         <v>0.56103891999999989</v>
       </c>
     </row>
@@ -18035,7 +18047,7 @@
         <f t="shared" si="0"/>
         <v>0.35432901</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>0.35432901</v>
       </c>
@@ -18054,7 +18066,7 @@
         <f t="shared" si="0"/>
         <v>0.25703462999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>0.25703462999999999</v>
       </c>
@@ -18073,7 +18085,7 @@
         <f t="shared" si="0"/>
         <v>0.17348488000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>0.17348488000000001</v>
       </c>
@@ -18092,7 +18104,7 @@
         <f t="shared" si="0"/>
         <v>0.14886363999999996</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>0.14886363999999996</v>
       </c>
@@ -18111,7 +18123,7 @@
         <f t="shared" si="0"/>
         <v>0.14393942999999998</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>0.14393942999999998</v>
       </c>
@@ -18130,7 +18142,7 @@
         <f t="shared" si="0"/>
         <v>9.4480490000000028E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>9.4480490000000028E-2</v>
       </c>
@@ -18149,7 +18161,7 @@
         <f t="shared" si="0"/>
         <v>8.0844130000000014E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>8.0844130000000014E-2</v>
       </c>
@@ -18168,7 +18180,7 @@
         <f t="shared" si="0"/>
         <v>7.6244640000000002E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>7.6244640000000002E-2</v>
       </c>
@@ -18187,7 +18199,7 @@
         <f t="shared" si="0"/>
         <v>4.5995709999999967E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>4.5995709999999967E-2</v>
       </c>
@@ -18206,7 +18218,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18225,7 +18237,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18244,9 +18256,9 @@
         <f t="shared" si="0"/>
         <v>-1.5151199999999809E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>1.5151199999999809E-3</v>
+        <v>-1.5151199999999809E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -18263,9 +18275,9 @@
         <f t="shared" si="0"/>
         <v>-2.0725129999999981E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>2.0725129999999981E-2</v>
+        <v>-2.0725129999999981E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -18282,9 +18294,9 @@
         <f t="shared" si="0"/>
         <v>-5.3409090000000048E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>5.3409090000000048E-2</v>
+        <v>-5.3409090000000048E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -18301,9 +18313,9 @@
         <f t="shared" si="0"/>
         <v>-5.9253219999999995E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>5.9253219999999995E-2</v>
+        <v>-5.9253219999999995E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -18320,9 +18332,9 @@
         <f t="shared" si="0"/>
         <v>-0.10725107</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>0.10725107</v>
+        <v>-0.10725107</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -18339,9 +18351,9 @@
         <f t="shared" si="0"/>
         <v>-0.13219694000000004</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>0.13219694000000004</v>
+        <v>-0.13219694000000004</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -18358,9 +18370,9 @@
         <f t="shared" si="0"/>
         <v>-0.15817099000000001</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>0.15817099000000001</v>
+        <v>-0.15817099000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -18377,9 +18389,9 @@
         <f t="shared" si="0"/>
         <v>-0.19280305999999997</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>0.19280305999999997</v>
+        <v>-0.19280305999999997</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -18396,9 +18408,9 @@
         <f t="shared" si="0"/>
         <v>-0.20757579000000004</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>0.20757579000000004</v>
+        <v>-0.20757579000000004</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -18415,9 +18427,9 @@
         <f t="shared" si="0"/>
         <v>-0.30654760000000003</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>0.30654760000000003</v>
+        <v>-0.30654760000000003</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -18434,9 +18446,9 @@
         <f t="shared" si="0"/>
         <v>-0.33344157000000002</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>0.33344157000000002</v>
+        <v>-0.33344157000000002</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -18453,9 +18465,9 @@
         <f t="shared" si="0"/>
         <v>-0.37559520000000002</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>0.37559520000000002</v>
+        <v>-0.37559520000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -18472,9 +18484,9 @@
         <f t="shared" si="0"/>
         <v>-0.38160174000000002</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>0.38160174000000002</v>
+        <v>-0.38160174000000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -18491,9 +18503,9 @@
         <f t="shared" si="0"/>
         <v>-0.46174239000000006</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>0.46174239000000006</v>
+        <v>-0.46174239000000006</v>
       </c>
     </row>
     <row r="45" spans="19:19" x14ac:dyDescent="0.3">
@@ -20188,7 +20200,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
